--- a/Discharge/Station2_2022-06-07_1110.xlsx
+++ b/Discharge/Station2_2022-06-07_1110.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F6C7D370-E78E-AB42-850C-1CC94CB62CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B758741F-7295-6348-B6EC-B08EA21AD41F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F6C7D370-E78E-AB42-850C-1CC94CB62CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E549446A-EFC2-418A-860C-F8C5FD90E551}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2300" windowWidth="27640" windowHeight="15780" xr2:uid="{1D37E556-BD7F-FA4F-A4F3-1DF81ED70988}"/>
+    <workbookView xWindow="1900" yWindow="1070" windowWidth="10110" windowHeight="9730" xr2:uid="{1D37E556-BD7F-FA4F-A4F3-1DF81ED70988}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -53,6 +52,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -412,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3CEA2E-4851-D547-89C5-2E07F1F3F087}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +444,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -457,8 +474,24 @@
         <f>SUM(E2:E13)</f>
         <v>6.0600000000000011E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G11)</f>
+        <v>0.12375000000000001</v>
+      </c>
+      <c r="J2">
+        <f>H2</f>
+        <v>0.12375000000000001</v>
+      </c>
+      <c r="K2">
+        <f>F2</f>
+        <v>6.0600000000000011E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>30</v>
       </c>
@@ -476,8 +509,12 @@
         <v>1.5749999999999998E-3</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>2.6249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -495,8 +532,12 @@
         <v>1.5000000000000005E-3</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="0">(D4-D3)*B4/100</f>
+        <v>3.0000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -510,12 +551,16 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E8" si="0">(D5-D4)*(B5/100)*C5</f>
+        <f t="shared" ref="E5:E8" si="1">(D5-D4)*(B5/100)*C5</f>
         <v>1.6200000000000001E-3</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>60</v>
       </c>
@@ -529,12 +574,16 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2000000000000003E-3</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>70</v>
       </c>
@@ -548,12 +597,16 @@
         <v>1.075</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6499999999999992E-4</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.649999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>75</v>
       </c>
@@ -567,12 +620,16 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -583,8 +640,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -595,8 +656,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -607,8 +672,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -619,8 +688,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -631,8 +704,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -643,8 +720,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -655,8 +736,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -668,7 +753,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -680,7 +765,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -692,7 +777,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
